--- a/7GTPE/Stat-exercices/ex1.xlsx
+++ b/7GTPE/Stat-exercices/ex1.xlsx
@@ -166,7 +166,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
